--- a/biology/Zoologie/Clidastes/Clidastes.xlsx
+++ b/biology/Zoologie/Clidastes/Clidastes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clidastes est un genre fossile de « reptiles » marins de la famille des Mosasauridae ayant vécu au Crétacé supérieur.
 </t>
@@ -511,11 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Clidastes est décrit par Edward Drinker Cope en 1868.
-Cladogramme Mosasaurinae
-Le cladogramme suivant est modifié à partir d'un arbre de crédibilité de clade maximum déduit par une analyse bayésienne dans la plus récente analyse phylogénétique majeure de la sous-famille des Mosasaurinae par Madzia &amp; Cau (2017)[1], qui est auto-décrit comme un raffinement d'une étude plus large de Simões et al. (2017)[2] :
 </t>
         </is>
       </c>
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il pouvait atteindre 4 m de long avec une tête pouvant aller jusqu'à 60 cm. Cet animal se nourrissait principalement d'ammonites et de poissons.
+          <t>Cladogramme Mosasaurinae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant est modifié à partir d'un arbre de crédibilité de clade maximum déduit par une analyse bayésienne dans la plus récente analyse phylogénétique majeure de la sous-famille des Mosasaurinae par Madzia &amp; Cau (2017), qui est auto-décrit comme un raffinement d'une étude plus large de Simões et al. (2017) :
 </t>
         </is>
       </c>
@@ -572,10 +590,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pouvait atteindre 4 m de long avec une tête pouvant aller jusqu'à 60 cm. Cet animal se nourrissait principalement d'ammonites et de poissons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Clidastes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clidastes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Clidastes intermedius
 Clidastes liodontus
